--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,25 +522,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.8423243333333333</v>
+        <v>0.09102500000000001</v>
       </c>
       <c r="H2">
-        <v>2.526973</v>
+        <v>0.273075</v>
       </c>
       <c r="I2">
-        <v>0.9815065412458547</v>
+        <v>0.8515285885346505</v>
       </c>
       <c r="J2">
-        <v>0.9815065412458546</v>
+        <v>0.8515285885346504</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,33 +549,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1553083333333333</v>
+        <v>0.02331333333333334</v>
       </c>
       <c r="N2">
-        <v>0.465925</v>
+        <v>0.06994</v>
       </c>
       <c r="O2">
-        <v>0.8694820523825963</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.8694820523825962</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1308199883361111</v>
+        <v>0.002122096166666667</v>
       </c>
       <c r="R2">
-        <v>1.177379895025</v>
+        <v>0.0190988655</v>
       </c>
       <c r="S2">
-        <v>0.8534023219093891</v>
+        <v>0.8515285885346505</v>
       </c>
       <c r="T2">
-        <v>0.853402321909389</v>
+        <v>0.8515285885346504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.8423243333333333</v>
+        <v>0.015871</v>
       </c>
       <c r="H3">
-        <v>2.526973</v>
+        <v>0.047613</v>
       </c>
       <c r="I3">
-        <v>0.9815065412458547</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="J3">
-        <v>0.9815065412458546</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,146 +617,22 @@
         <v>0.06994</v>
       </c>
       <c r="O3">
-        <v>0.1305179476174037</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.1305179476174036</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01963738795777778</v>
+        <v>0.0003700059133333334</v>
       </c>
       <c r="R3">
-        <v>0.17673649162</v>
+        <v>0.00333005322</v>
       </c>
       <c r="S3">
-        <v>0.1281042193364655</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="T3">
-        <v>0.1281042193364655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.015871</v>
-      </c>
-      <c r="H4">
-        <v>0.047613</v>
-      </c>
-      <c r="I4">
-        <v>0.01849345875414533</v>
-      </c>
-      <c r="J4">
-        <v>0.01849345875414533</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.1553083333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.465925</v>
-      </c>
-      <c r="O4">
-        <v>0.8694820523825963</v>
-      </c>
-      <c r="P4">
-        <v>0.8694820523825962</v>
-      </c>
-      <c r="Q4">
-        <v>0.002464898558333333</v>
-      </c>
-      <c r="R4">
-        <v>0.022184087025</v>
-      </c>
-      <c r="S4">
-        <v>0.01607973047320717</v>
-      </c>
-      <c r="T4">
-        <v>0.01607973047320717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.015871</v>
-      </c>
-      <c r="H5">
-        <v>0.047613</v>
-      </c>
-      <c r="I5">
-        <v>0.01849345875414533</v>
-      </c>
-      <c r="J5">
-        <v>0.01849345875414533</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.02331333333333334</v>
-      </c>
-      <c r="N5">
-        <v>0.06994</v>
-      </c>
-      <c r="O5">
-        <v>0.1305179476174037</v>
-      </c>
-      <c r="P5">
-        <v>0.1305179476174036</v>
-      </c>
-      <c r="Q5">
-        <v>0.0003700059133333334</v>
-      </c>
-      <c r="R5">
-        <v>0.00333005322</v>
-      </c>
-      <c r="S5">
-        <v>0.002413728280938155</v>
-      </c>
-      <c r="T5">
-        <v>0.002413728280938154</v>
+        <v>0.1484714114653495</v>
       </c>
     </row>
   </sheetData>
